--- a/StructureDefinition-profile-Coverage.xlsx
+++ b/StructureDefinition-profile-Coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6602165-06:00</t>
+    <t>2026-02-09T22:05:43.0531231-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,33 +428,99 @@
     <t>Coverage.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Coverage.extension:kind</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.kind|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.kind from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The nature of the coverage be it insurance, or cash payment such as self-pay.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.kind` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Coverage.extension:paymentBy</t>
+  </si>
+  <si>
+    <t>paymentBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.paymentBy from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Link to the paying party and optionally what specifically they will be responsible to pay.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.paymentBy` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.extension:insurancePlan</t>
+  </si>
+  <si>
+    <t>insurancePlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.insurancePlan from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/InsurancePlan in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.insurancePlan` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Coverage.insurancePlan` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -462,6 +528,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -647,20 +716,13 @@
     <t>Coverage.subscriberId.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId.extension:subscriberId</t>
+  </si>
+  <si>
+    <t>subscriberId</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.subscriberId|0.0.1-snapshot-3}
@@ -670,8 +732,7 @@
     <t>Cross-version extension for Coverage.subscriberId from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `Coverage.subscriberId` is mapped to FHIR R4 element `Coverage.subscriberId`.</t>
   </si>
   <si>
     <t>Coverage.subscriberId.value</t>
@@ -850,6 +911,9 @@
     <t>Coverage.class.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -918,6 +982,12 @@
     <t>Coverage.class.value.extension</t>
   </si>
   <si>
+    <t>Coverage.class.value.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class.value|0.0.1-snapshot-3}
 </t>
   </si>
@@ -928,6 +998,9 @@
     <t>The alphanumeric identifier associated with the insurer issued label.</t>
   </si>
   <si>
+    <t>Element `Coverage.class.value` is mapped to FHIR R4 element `Coverage.class.value`.</t>
+  </si>
+  <si>
     <t>Coverage.class.value.value</t>
   </si>
   <si>
@@ -997,6 +1070,82 @@
   </si>
   <si>
     <t>Coverage.costToBeneficiary.extension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.category|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code to identify the general type of benefits under which products and services are provided.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.category` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:network</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.network|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.network from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Is a flag to indicate whether the benefits refer to in-network providers or out-of-network providers.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.network` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:unit</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.unit|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.unit from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if the benefits apply to an individual or to the family.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.unit` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:term</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.term|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.term from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The term or period of the values such as 'maximum lifetime benefit' or 'maximum annual visits'.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.term` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.modifierExtension</t>
@@ -1435,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1446,7 +1595,7 @@
   <cols>
     <col min="1" max="1" width="46.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1454,7 +1603,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2462,11 +2611,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -2481,17 +2630,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2528,16 +2675,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2558,7 +2703,7 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -2578,43 +2723,43 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2662,7 +2807,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2671,7 +2816,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2680,7 +2825,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -2697,12 +2842,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2720,23 +2867,21 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2784,7 +2929,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2793,44 +2938,46 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
@@ -2839,26 +2986,24 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2882,13 +3027,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2906,28 +3051,28 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -2941,43 +3086,45 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3002,13 +3149,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3026,34 +3173,34 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3061,10 +3208,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3075,7 +3222,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3087,19 +3234,19 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3148,13 +3295,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3163,30 +3310,30 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3194,7 +3341,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -3203,25 +3350,25 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3246,13 +3393,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3270,10 +3417,10 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>89</v>
@@ -3285,30 +3432,30 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3331,17 +3478,17 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3366,13 +3513,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3390,7 +3537,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3411,16 +3558,16 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -3448,19 +3595,23 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3508,7 +3659,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3520,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3529,24 +3680,24 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3554,11 +3705,11 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3566,19 +3717,23 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3614,55 +3769,57 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3673,7 +3830,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3682,19 +3839,21 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3742,45 +3901,45 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3803,13 +3962,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3833,7 +3992,7 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>79</v>
@@ -3860,7 +4019,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3895,10 +4054,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3906,10 +4065,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3918,21 +4077,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -3968,59 +4125,59 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4029,7 +4186,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4038,23 +4195,21 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4102,19 +4257,19 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4126,10 +4281,10 @@
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4137,10 +4292,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4163,20 +4318,16 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4197,34 +4348,34 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4236,7 +4387,7 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4248,7 +4399,7 @@
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4259,10 +4410,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4270,7 +4421,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4285,17 +4436,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4344,10 +4495,10 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>89</v>
@@ -4359,30 +4510,30 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4390,10 +4541,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4405,19 +4556,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4466,13 +4617,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4487,24 +4638,24 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4515,7 +4666,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4527,19 +4678,19 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4564,13 +4715,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4588,13 +4739,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -4612,7 +4763,7 @@
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4623,10 +4774,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4646,19 +4797,21 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4706,7 +4859,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4718,22 +4871,22 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -4741,18 +4894,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>81</v>
@@ -4764,21 +4917,23 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4826,10 +4981,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
@@ -4838,37 +4993,37 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4881,25 +5036,25 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4948,7 +5103,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -4960,13 +5115,13 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4983,10 +5138,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4994,7 +5149,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5006,21 +5161,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5044,13 +5197,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5068,10 +5221,10 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -5080,13 +5233,13 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5103,21 +5256,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5126,23 +5279,21 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5190,77 +5341,81 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5308,25 +5463,25 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5343,10 +5498,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5357,7 +5512,7 @@
         <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5366,19 +5521,21 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5402,41 +5559,43 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5459,10 +5618,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5482,21 +5641,23 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5544,19 +5705,19 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5568,21 +5729,21 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5605,13 +5766,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5635,7 +5796,7 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
         <v>79</v>
@@ -5662,7 +5823,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5697,10 +5858,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5708,10 +5869,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5720,21 +5881,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5770,31 +5929,29 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -5806,29 +5963,31 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -5840,21 +5999,21 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5902,19 +6061,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -5929,7 +6088,7 @@
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -5937,10 +6096,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5960,21 +6119,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -5995,7 +6152,7 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>79</v>
@@ -6022,7 +6179,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6034,7 +6191,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6046,7 +6203,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6057,21 +6214,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6080,22 +6237,20 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6144,13 +6299,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6168,21 +6323,21 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6202,19 +6357,21 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6262,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6274,13 +6431,13 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6289,7 +6446,7 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6297,21 +6454,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6320,21 +6477,21 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6382,31 +6539,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6417,14 +6574,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6437,25 +6594,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>144</v>
+        <v>337</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6504,7 +6661,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6516,13 +6673,13 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6539,10 +6696,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6562,23 +6719,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6602,13 +6755,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6626,7 +6779,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6638,13 +6791,13 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6661,10 +6814,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6672,10 +6825,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6684,23 +6837,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6736,31 +6885,29 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6772,23 +6919,25 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6797,7 +6946,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6809,18 +6958,18 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6868,7 +7017,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>225</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6877,10 +7026,10 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -6903,12 +7052,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6929,15 +7080,17 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -6986,25 +7139,25 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7021,21 +7174,23 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7047,16 +7202,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7106,7 +7261,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7115,7 +7270,7 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>140</v>
@@ -7124,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7141,46 +7296,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7228,7 +7383,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7237,7 +7392,7 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>140</v>
@@ -7246,7 +7401,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7263,43 +7418,45 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7324,13 +7481,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7348,25 +7505,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7383,10 +7540,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7409,17 +7566,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7444,13 +7603,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7468,7 +7627,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7503,10 +7662,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7514,7 +7673,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7526,22 +7685,22 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7590,10 +7749,10 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>89</v>
@@ -7614,21 +7773,21 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7651,17 +7810,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7710,7 +7869,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7728,19 +7887,861 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Coverage.xlsx
+++ b/StructureDefinition-profile-Coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0531231-06:00</t>
+    <t>2026-02-17T14:42:26.7761816-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>The nature of the coverage be it insurance, or cash payment such as self-pay.</t>
   </si>
   <si>
-    <t>Element `Coverage.kind` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+    <t>Element `Coverage.kind` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -491,7 +491,7 @@
     <t>Link to the paying party and optionally what specifically they will be responsible to pay.</t>
   </si>
   <si>
-    <t>Element `Coverage.paymentBy` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+    <t>Element `Coverage.paymentBy` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Coverage.extension:insurancePlan</t>
@@ -511,7 +511,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.insurancePlan` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Coverage.insurancePlan` is will have a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
+Element `Coverage.insurancePlan` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -732,7 +732,7 @@
     <t>Cross-version extension for Coverage.subscriberId from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Coverage.subscriberId` is mapped to FHIR R4 element `Coverage.subscriberId`.</t>
+    <t>Element `Coverage.subscriberId` has is mapped to FHIR R4 element `Coverage.subscriberId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Coverage.subscriberId.value</t>
@@ -911,10 +911,20 @@
     <t>Coverage.class.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Coverage.class.extension:class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.class from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Coverage.class` has is mapped to FHIR R4 element `Coverage.class`, but has no comparisons.</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -976,34 +986,6 @@
     <t>C.31</t>
   </si>
   <si>
-    <t>Coverage.class.value.id</t>
-  </si>
-  <si>
-    <t>Coverage.class.value.extension</t>
-  </si>
-  <si>
-    <t>Coverage.class.value.extension:value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class.value|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Coverage.class.value from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The alphanumeric identifier associated with the insurer issued label.</t>
-  </si>
-  <si>
-    <t>Element `Coverage.class.value` is mapped to FHIR R4 element `Coverage.class.value`.</t>
-  </si>
-  <si>
-    <t>Coverage.class.value.value</t>
-  </si>
-  <si>
     <t>Coverage.class.name</t>
   </si>
   <si>
@@ -1072,80 +1054,20 @@
     <t>Coverage.costToBeneficiary.extension</t>
   </si>
   <si>
-    <t>Coverage.costToBeneficiary.extension:category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.category|0.0.1-snapshot-3}
+    <t>Coverage.costToBeneficiary.extension:costToBeneficiary</t>
+  </si>
+  <si>
+    <t>costToBeneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Coverage.costToBeneficiary.category from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Code to identify the general type of benefits under which products and services are provided.</t>
-  </si>
-  <si>
-    <t>Element `Coverage.costToBeneficiary.category` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.extension:network</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.network|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Coverage.costToBeneficiary.network from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Is a flag to indicate whether the benefits refer to in-network providers or out-of-network providers.</t>
-  </si>
-  <si>
-    <t>Element `Coverage.costToBeneficiary.network` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.extension:unit</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.unit|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Coverage.costToBeneficiary.unit from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates if the benefits apply to an individual or to the family.</t>
-  </si>
-  <si>
-    <t>Element `Coverage.costToBeneficiary.unit` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.extension:term</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.term|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Coverage.costToBeneficiary.term from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The term or period of the values such as 'maximum lifetime benefit' or 'maximum annual visits'.</t>
-  </si>
-  <si>
-    <t>Element `Coverage.costToBeneficiary.term` is will have a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+    <t>Cross-version extension for Coverage.costToBeneficiary from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary` has is mapped to FHIR R4 element `Coverage.costToBeneficiary`, but has no comparisons.</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.modifierExtension</t>
@@ -1204,6 +1126,12 @@
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.modifierExtension</t>
@@ -1584,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1595,7 +1523,7 @@
   <cols>
     <col min="1" max="1" width="46.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.1796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1603,7 +1531,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5263,7 +5191,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5285,14 +5213,12 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5329,16 +5255,14 @@
         <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>225</v>
@@ -5359,7 +5283,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5376,14 +5300,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5396,26 +5322,24 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5463,7 +5387,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5472,7 +5396,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>140</v>
@@ -5481,7 +5405,7 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5498,43 +5422,45 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5559,13 +5485,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5583,25 +5509,25 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5618,10 +5544,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5644,19 +5570,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5681,13 +5605,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5705,7 +5629,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
@@ -5729,21 +5653,21 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5751,7 +5675,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -5763,19 +5687,23 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5823,10 +5751,10 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>89</v>
@@ -5835,7 +5763,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5847,21 +5775,21 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5869,11 +5797,11 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5881,19 +5809,21 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5929,29 +5859,31 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -5963,31 +5895,29 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -5999,21 +5929,21 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6061,19 +5991,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6018,7 @@
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6096,10 +6026,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6119,19 +6049,21 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6152,7 +6084,7 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>79</v>
@@ -6179,7 +6111,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6191,7 +6123,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6203,7 +6135,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6214,21 +6146,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6237,20 +6169,22 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6299,13 +6233,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6323,21 +6257,21 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6357,21 +6291,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6419,7 +6351,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6431,13 +6363,13 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6446,7 +6378,7 @@
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6454,10 +6386,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6468,7 +6400,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6477,21 +6409,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>330</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6527,31 +6457,29 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6563,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6574,14 +6502,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6600,20 +6530,18 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6661,7 +6589,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6670,10 +6598,10 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6696,42 +6624,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6779,25 +6711,25 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6814,10 +6746,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6828,7 +6760,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6837,19 +6769,23 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6873,41 +6809,43 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6930,20 +6868,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -6955,21 +6891,23 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7017,19 +6955,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7041,25 +6979,23 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7068,7 +7004,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7080,18 +7016,18 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7139,7 +7075,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7148,10 +7084,10 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7174,14 +7110,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7202,17 +7136,15 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7261,25 +7193,25 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7296,23 +7228,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7324,16 +7254,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7392,7 +7322,7 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>140</v>
@@ -7401,7 +7331,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7418,14 +7348,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7447,10 +7377,10 @@
         <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>164</v>
@@ -7505,7 +7435,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7540,10 +7470,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7551,7 +7481,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>89</v>
@@ -7569,16 +7499,14 @@
         <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7603,13 +7531,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7627,10 +7555,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>89</v>
@@ -7662,10 +7590,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7673,7 +7601,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7688,19 +7616,17 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7749,10 +7675,10 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>89</v>
@@ -7773,21 +7699,21 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7798,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7810,17 +7736,19 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7869,13 +7797,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -7904,10 +7832,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7918,7 +7846,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7930,16 +7858,18 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7987,19 +7917,19 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>223</v>
+        <v>378</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8011,736 +7941,12 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AP59" t="s" s="2">
         <v>208</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Coverage.xlsx
+++ b/StructureDefinition-profile-Coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7761816-06:00</t>
+    <t>2026-02-20T11:59:20.7723879-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Coverage|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Coverage</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.kind|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.kind}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>paymentBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>insurancePlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -725,7 +725,7 @@
     <t>subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.subscriberId|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.subscriberId}
 </t>
   </si>
   <si>
@@ -917,7 +917,7 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class}
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>costToBeneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary}
 </t>
   </si>
   <si>
@@ -1531,7 +1531,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Coverage.xlsx
+++ b/StructureDefinition-profile-Coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7723879-06:00</t>
+    <t>2026-02-21T13:36:54.180037-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Coverage</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Coverage|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.kind}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.kind|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>paymentBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.paymentBy|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -492,26 +492,6 @@
   </si>
   <si>
     <t>Element `Coverage.paymentBy` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
-  </si>
-  <si>
-    <t>Coverage.extension:insurancePlan</t>
-  </si>
-  <si>
-    <t>insurancePlan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Coverage.insurancePlan from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/InsurancePlan in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Coverage.insurancePlan` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Coverage.insurancePlan` has a context of Coverage based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -725,14 +705,14 @@
     <t>subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.subscriberId}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.subscriberId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Coverage.subscriberId from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Coverage.subscriberId` has is mapped to FHIR R4 element `Coverage.subscriberId`, but has no comparisons.</t>
+    <t>Element `Coverage.subscriberId` is mapped to FHIR R4 element `Coverage.subscriberId` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Coverage.subscriberId.value</t>
@@ -911,20 +891,10 @@
     <t>Coverage.class.extension</t>
   </si>
   <si>
-    <t>Coverage.class.extension:class</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Coverage.class from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Coverage.class` has is mapped to FHIR R4 element `Coverage.class`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Coverage.class.modifierExtension</t>
@@ -986,6 +956,34 @@
     <t>C.31</t>
   </si>
   <si>
+    <t>Coverage.class.value.id</t>
+  </si>
+  <si>
+    <t>Coverage.class.value.extension</t>
+  </si>
+  <si>
+    <t>Coverage.class.value.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.class.value|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.class.value from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The alphanumeric identifier associated with the insurer issued label.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.class.value` is mapped to FHIR R4 element `Coverage.class.value` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Coverage.class.value.value</t>
+  </si>
+  <si>
     <t>Coverage.class.name</t>
   </si>
   <si>
@@ -1054,20 +1052,80 @@
     <t>Coverage.costToBeneficiary.extension</t>
   </si>
   <si>
-    <t>Coverage.costToBeneficiary.extension:costToBeneficiary</t>
-  </si>
-  <si>
-    <t>costToBeneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary}
+    <t>Coverage.costToBeneficiary.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Coverage.costToBeneficiary from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Coverage.costToBeneficiary` has is mapped to FHIR R4 element `Coverage.costToBeneficiary`, but has no comparisons.</t>
+    <t>Cross-version extension for Coverage.costToBeneficiary.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code to identify the general type of benefits under which products and services are provided.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.category` has a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:network</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.network|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.network from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Is a flag to indicate whether the benefits refer to in-network providers or out-of-network providers.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.network` has a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:unit</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.unit|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.unit from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if the benefits apply to an individual or to the family.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.unit` has a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension:term</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Coverage.costToBeneficiary.term|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Coverage.costToBeneficiary.term from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The term or period of the values such as 'maximum lifetime benefit' or 'maximum annual visits'.</t>
+  </si>
+  <si>
+    <t>Element `Coverage.costToBeneficiary.term` has a context of Coverage.costToBeneficiary based on following the parent source element upwards and mapping to `Coverage`.</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.modifierExtension</t>
@@ -1126,12 +1184,6 @@
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception.modifierExtension</t>
@@ -1512,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1523,7 +1575,7 @@
   <cols>
     <col min="1" max="1" width="46.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.69140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.1796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.76171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1531,7 +1583,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2895,43 +2947,43 @@
         <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -2997,7 +3049,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3014,14 +3066,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3034,25 +3086,25 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3101,7 +3153,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3113,33 +3165,33 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3147,34 +3199,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3199,13 +3251,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3223,13 +3275,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3238,30 +3290,30 @@
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3269,7 +3321,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -3278,25 +3330,23 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3321,34 +3371,34 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>89</v>
@@ -3360,19 +3410,19 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -3380,10 +3430,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3406,17 +3456,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3441,13 +3493,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3465,7 +3517,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3486,24 +3538,24 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3526,19 +3578,19 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3587,7 +3639,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3608,16 +3660,16 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -3656,11 +3708,9 @@
       <c r="M18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3730,24 +3780,24 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3767,21 +3817,19 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3829,7 +3877,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3841,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -3850,24 +3898,24 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3878,7 +3926,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3890,13 +3938,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3935,31 +3983,29 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -3982,12 +4028,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4008,15 +4056,17 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4053,17 +4103,19 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4072,7 +4124,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>140</v>
@@ -4098,14 +4150,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4114,7 +4164,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4126,17 +4176,15 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4158,7 +4206,7 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>79</v>
@@ -4185,19 +4233,19 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4220,10 +4268,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4231,7 +4279,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4243,10 +4291,10 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>232</v>
@@ -4255,7 +4303,9 @@
         <v>233</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4276,7 +4326,7 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
         <v>79</v>
@@ -4303,10 +4353,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4315,25 +4365,25 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
@@ -4349,7 +4399,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4364,15 +4414,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>240</v>
       </c>
@@ -4426,7 +4478,7 @@
         <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>89</v>
@@ -4438,30 +4490,30 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4481,22 +4533,22 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4521,13 +4573,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4545,7 +4597,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4569,10 +4621,10 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -4580,10 +4632,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4603,22 +4655,20 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4643,13 +4693,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4667,7 +4717,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4682,19 +4732,19 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -4702,10 +4752,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4713,10 +4763,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4728,17 +4778,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4787,13 +4839,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -4802,30 +4854,30 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4833,7 +4885,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>81</v>
@@ -4845,22 +4897,22 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4909,10 +4961,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
@@ -4930,16 +4982,16 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -4958,7 +5010,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -4970,20 +5022,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5031,25 +5079,25 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5066,21 +5114,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5092,15 +5140,17 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5149,25 +5199,25 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5184,14 +5234,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5204,22 +5254,26 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5255,17 +5309,19 @@
         <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5339,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5300,23 +5356,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C32" t="s" s="2">
         <v>289</v>
       </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5325,21 +5379,21 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5363,13 +5417,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5387,19 +5441,19 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5422,45 +5476,45 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>165</v>
+        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5509,45 +5563,45 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5555,7 +5609,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5567,21 +5621,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5605,13 +5657,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5629,10 +5681,10 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>89</v>
@@ -5641,7 +5693,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5678,7 +5730,7 @@
         <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5687,23 +5739,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5739,31 +5787,29 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5775,29 +5821,31 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -5809,21 +5857,21 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5871,19 +5919,19 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -5895,21 +5943,21 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5929,21 +5977,19 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5964,7 +6010,7 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>79</v>
@@ -5991,7 +6037,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6003,7 +6049,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6018,7 +6064,7 @@
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6026,10 +6072,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6052,17 +6098,17 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6111,7 +6157,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6135,32 +6181,32 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6169,22 +6215,20 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6233,13 +6277,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6260,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6268,10 +6312,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6291,19 +6335,21 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6351,7 +6397,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>223</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6363,19 +6409,19 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6386,14 +6432,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6412,16 +6458,20 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6457,17 +6507,19 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6479,7 +6531,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6502,14 +6554,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6518,7 +6568,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6530,17 +6580,15 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6589,25 +6637,25 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6624,14 +6672,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6644,26 +6692,22 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6699,19 +6743,17 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6729,7 +6771,7 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6746,12 +6788,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6769,23 +6813,21 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6809,13 +6851,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6833,19 +6875,19 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>219</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6868,18 +6910,20 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -6891,23 +6935,21 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6955,19 +6997,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -6979,23 +7021,25 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7004,7 +7048,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7016,18 +7060,18 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7075,7 +7119,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>219</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7084,10 +7128,10 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7110,12 +7154,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7136,15 +7182,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7193,25 +7241,25 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7228,14 +7276,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7248,24 +7296,26 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7313,7 +7363,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7331,7 +7381,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7348,45 +7398,45 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>165</v>
+        <v>363</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7411,13 +7461,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7435,25 +7485,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7470,10 +7520,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7496,17 +7546,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7531,31 +7583,31 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>89</v>
@@ -7579,21 +7631,21 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7604,7 +7656,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7613,20 +7665,20 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7675,13 +7727,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7710,10 +7762,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7736,20 +7788,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>373</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7797,7 +7845,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>217</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7809,13 +7857,13 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7832,14 +7880,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7858,18 +7906,18 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7917,7 +7965,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>219</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7929,25 +7977,629 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>208</v>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
